--- a/outputs-GTDB-r202/f__P3.xlsx
+++ b/outputs-GTDB-r202/f__P3.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>g__UBA1217</t>
+          <t>g__UBA1217(reject)</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>g__UBA1711</t>
+          <t>g__UBA1711(reject)</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>g__UBA1217</t>
+          <t>g__UBA1217(reject)</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>g__UBA1711</t>
+          <t>g__UBA1711(reject)</t>
         </is>
       </c>
     </row>
